--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9673.682972291219</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7714.829826528551</v>
+        <v>2299.102676639999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100333.8940388162</v>
+        <v>249384.345679256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661856</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>185695.5929690686</v>
+        <v>138781.1577882601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>153059.456011968</v>
+        <v>449634.7497589202</v>
       </c>
       <c r="M2" t="n">
-        <v>55752.293802744</v>
+        <v>101123.794939365</v>
       </c>
       <c r="N2" t="n">
-        <v>52147.95914619845</v>
+        <v>64159.90086799784</v>
       </c>
       <c r="O2" t="n">
-        <v>32378.80836262764</v>
+        <v>60521.71677636998</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42311.07885476763</v>
+        <v>3009.804799738145</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>27164.01933074473</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>255623.8882451698</v>
+        <v>148029.3904973308</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>135255.7033345029</v>
+        <v>167745.2736830803</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>677041.5624475142</v>
+        <v>40177.05802310962</v>
       </c>
       <c r="M2" t="n">
-        <v>170482.6858665723</v>
+        <v>55411.58404378576</v>
       </c>
       <c r="N2" t="n">
-        <v>113279.0079444065</v>
+        <v>17452.07979808242</v>
       </c>
       <c r="O2" t="n">
-        <v>48754.80235594927</v>
+        <v>10096.07155031569</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48452.09780083536</v>
+        <v>18346.45888886983</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15997.19565778882</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>538936.5411708796</v>
+        <v>107448.9872383075</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>568566.5542374828</v>
+        <v>151988.1037676829</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>489653.5199506236</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>334742.4402794035</v>
+        <v>55328.40432004048</v>
       </c>
       <c r="N2" t="n">
-        <v>88093.39805567593</v>
+        <v>39263.10978901467</v>
       </c>
       <c r="O2" t="n">
-        <v>153247.6571099094</v>
+        <v>46419.8816816441</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2299.102676639999</v>
+        <v>1715.760994200636</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>249384.345679256</v>
+        <v>249348.5034426333</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>138781.1577882601</v>
+        <v>138240.852797177</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>449634.7497589202</v>
+        <v>448883.1064232461</v>
       </c>
       <c r="M2" t="n">
-        <v>101123.794939365</v>
+        <v>101434.8210067014</v>
       </c>
       <c r="N2" t="n">
-        <v>64159.90086799784</v>
+        <v>65159.57982584304</v>
       </c>
       <c r="O2" t="n">
-        <v>60521.71677636998</v>
+        <v>62112.65428698476</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3009.804799738145</v>
+        <v>1560.164813693395</v>
       </c>
       <c r="B2" t="n">
-        <v>27164.01933074473</v>
+        <v>41737.66617636</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>148029.3904973308</v>
+        <v>245152.3900012034</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>167745.2736830803</v>
+        <v>225425.3770606828</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40177.05802310962</v>
+        <v>152673.1028312588</v>
       </c>
       <c r="M2" t="n">
-        <v>55411.58404378576</v>
+        <v>95084.48612473471</v>
       </c>
       <c r="N2" t="n">
-        <v>17452.07979808242</v>
+        <v>30791.72579164192</v>
       </c>
       <c r="O2" t="n">
-        <v>10096.07155031569</v>
+        <v>21756.19778172665</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>18346.45888886983</v>
+        <v>20479.74258078725</v>
       </c>
       <c r="B2" t="n">
-        <v>15997.19565778882</v>
+        <v>14871.78471240001</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>107448.9872383075</v>
+        <v>98812.75330607952</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151988.1037676829</v>
+        <v>144259.0521526223</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>55328.40432004048</v>
+        <v>54243.78658924496</v>
       </c>
       <c r="N2" t="n">
-        <v>39263.10978901467</v>
+        <v>43635.69805396052</v>
       </c>
       <c r="O2" t="n">
-        <v>46419.8816816441</v>
+        <v>53147.86046225035</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9673.682972291219</v>
+        <v>40233.56911494581</v>
       </c>
       <c r="B2" t="n">
-        <v>7714.829826528551</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>415757.5389350583</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100333.8940388162</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78132.21199196398</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661856</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>22808.50135912914</v>
       </c>
       <c r="I2" t="n">
-        <v>185695.5929690686</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>153059.456011968</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>55752.293802744</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52147.95914619845</v>
+        <v>21650.60633790609</v>
       </c>
       <c r="O2" t="n">
-        <v>32378.80836262764</v>
+        <v>17946.12178646394</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42311.07885476763</v>
+        <v>44728.61707334133</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1276801.69939591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>255623.8882451698</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71808.23849699755</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43890.01336934548</v>
       </c>
       <c r="I2" t="n">
-        <v>135255.7033345029</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>677041.5624475142</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>170482.6858665723</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>113279.0079444065</v>
+        <v>48701.87339736188</v>
       </c>
       <c r="O2" t="n">
-        <v>48754.80235594927</v>
+        <v>33648.76178610392</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>48452.09780083536</v>
+        <v>182997.6484277792</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>834178.0782762276</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>538936.5411708796</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13662.67717712691</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37645.36286134563</v>
       </c>
       <c r="I2" t="n">
-        <v>568566.5542374828</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>489653.5199506236</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>334742.4402794035</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>88093.39805567593</v>
+        <v>50560.98482760838</v>
       </c>
       <c r="O2" t="n">
-        <v>153247.6571099094</v>
+        <v>35211.24689907349</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -559,7 +559,7 @@
         <v>21650.60633790609</v>
       </c>
       <c r="O2" t="n">
-        <v>17946.12178646394</v>
+        <v>17946.12178646395</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48701.87339736188</v>
+        <v>48701.87339736201</v>
       </c>
       <c r="O2" t="n">
         <v>33648.76178610392</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>182997.6484277792</v>
+        <v>182997.6484277791</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>834178.0782762276</v>
+        <v>834178.0782762273</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37645.36286134563</v>
+        <v>37645.36286134543</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>50560.98482760838</v>
+        <v>50560.984827608</v>
       </c>
       <c r="O2" t="n">
-        <v>35211.24689907349</v>
+        <v>35211.24689907367</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1560.164813693395</v>
+        <v>1560.16481369344</v>
       </c>
       <c r="B2" t="n">
         <v>41737.66617636</v>
@@ -699,10 +699,10 @@
         <v>95084.48612473471</v>
       </c>
       <c r="N2" t="n">
-        <v>30791.72579164192</v>
+        <v>30791.7257916418</v>
       </c>
       <c r="O2" t="n">
-        <v>21756.19778172665</v>
+        <v>21756.19778172662</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20479.74258078725</v>
+        <v>20479.74258078749</v>
       </c>
       <c r="B2" t="n">
         <v>14871.78471240001</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98812.75330607952</v>
+        <v>98812.75330607922</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>144259.0521526223</v>
+        <v>144259.0521526263</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>54243.78658924496</v>
       </c>
       <c r="N2" t="n">
-        <v>43635.69805396052</v>
+        <v>43635.69805396039</v>
       </c>
       <c r="O2" t="n">
-        <v>53147.86046225035</v>
+        <v>53147.86046224739</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_cost.xlsx
+++ b/results/[12_moderate_climate]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
